--- a/output/fit_clients/fit_round_175.xlsx
+++ b/output/fit_clients/fit_round_175.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1995376343.585955</v>
+        <v>2160502712.042642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08114988055048977</v>
+        <v>0.1060655630584481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0274959001702078</v>
+        <v>0.03838613261859891</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>997688166.7698063</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2048959933.037662</v>
+        <v>1785837129.143085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1653474502717255</v>
+        <v>0.151733084527578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03223992958774103</v>
+        <v>0.0339814135958432</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1024480014.133004</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3660390056.242465</v>
+        <v>4427412159.427551</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1145923787689243</v>
+        <v>0.1224684659070354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03497532713883647</v>
+        <v>0.03431316869268212</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>63</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1830195018.210867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3320455101.371109</v>
+        <v>3461865716.73434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09303496845552944</v>
+        <v>0.09141113221756041</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03271036611614737</v>
+        <v>0.04111146323220856</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1660227599.331609</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2371964441.617593</v>
+        <v>2425378557.466678</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1187776139822066</v>
+        <v>0.1383767761655738</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03526794968608229</v>
+        <v>0.03522487929525511</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1185982210.120631</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2824803790.641154</v>
+        <v>2806671626.10969</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06689951622079995</v>
+        <v>0.0909396892563225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03122647849401935</v>
+        <v>0.03780188156417068</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1412401877.024705</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2966700970.673236</v>
+        <v>3479825347.311488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1422616427019544</v>
+        <v>0.171058964439427</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03009066359868589</v>
+        <v>0.02909548247997339</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>56</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1483350539.420239</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1557258951.360137</v>
+        <v>1588693849.772091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1884856953368573</v>
+        <v>0.1640548256174015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02364297540464607</v>
+        <v>0.03344705071624273</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>778629563.6814404</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5738617092.211172</v>
+        <v>5114662610.320168</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1942261903425936</v>
+        <v>0.131598906697904</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03580787922201584</v>
+        <v>0.05339598162511981</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>74</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2869308702.567492</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3625573285.532506</v>
+        <v>3180681380.418789</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1629807857173033</v>
+        <v>0.1384065980017483</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03443076227495778</v>
+        <v>0.0490222317780597</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>72</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1812786629.291406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2332560878.577779</v>
+        <v>2224909279.704585</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1210101776910308</v>
+        <v>0.1395699073759673</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05368336145826306</v>
+        <v>0.05037601003325712</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>62</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1166280396.137929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4170861181.721795</v>
+        <v>4456170665.292197</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09225482377941914</v>
+        <v>0.09065661901969994</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02907386665904017</v>
+        <v>0.02000507149113409</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>59</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2085430637.089638</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3710853557.239467</v>
+        <v>2984140779.527039</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1747080044661406</v>
+        <v>0.1353746672344462</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03071748983446641</v>
+        <v>0.03860526229262079</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1855426761.5455</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1720674347.167111</v>
+        <v>1675682338.095208</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09989697835354307</v>
+        <v>0.1070689052304529</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0433474493297721</v>
+        <v>0.03836848854094242</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>860337309.0901836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1960496539.002051</v>
+        <v>1967283023.874913</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08158547584069309</v>
+        <v>0.07882119169807492</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04386749040566189</v>
+        <v>0.03674870350197233</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>980248348.4953215</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5189856199.251187</v>
+        <v>4308627749.89114</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1249155471912024</v>
+        <v>0.167435264430618</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04142364595280486</v>
+        <v>0.04635360086094038</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>51</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2594928075.407195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3184675652.571121</v>
+        <v>2876968689.689002</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1130602900792048</v>
+        <v>0.1183677778221607</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03099755156700452</v>
+        <v>0.03019173066297463</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>57</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1592337843.147804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1189692048.65188</v>
+        <v>1274863760.996096</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11677400085489</v>
+        <v>0.1667479994684996</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02665154333836598</v>
+        <v>0.02243289782233105</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>594846099.696187</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2040588246.265814</v>
+        <v>2022926096.371777</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1579055808991739</v>
+        <v>0.160756463619887</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02145381463262291</v>
+        <v>0.02419837401817981</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1020294145.135766</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1882349281.971495</v>
+        <v>2115306714.323421</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08632667862929687</v>
+        <v>0.09608755917470475</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03223330005466828</v>
+        <v>0.03848876754063757</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>941174688.1642995</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3405409131.979909</v>
+        <v>3746264207.870411</v>
       </c>
       <c r="F22" t="n">
-        <v>0.121246977436753</v>
+        <v>0.1342113516597535</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04921430550286297</v>
+        <v>0.04806513347101957</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1702704603.217531</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1069764550.061589</v>
+        <v>1456594673.581714</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1298878920509902</v>
+        <v>0.1468303227353666</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05160675685928261</v>
+        <v>0.03597971922755359</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>534882333.4331468</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4077215878.007895</v>
+        <v>2932493230.358377</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1218753796765969</v>
+        <v>0.1358458005432392</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02595911152947204</v>
+        <v>0.03477390841222402</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2038607901.770433</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>999823316.7125089</v>
+        <v>1242528419.353534</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1168734677007562</v>
+        <v>0.09708472168975625</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02118631744124298</v>
+        <v>0.02090693968216229</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>499911722.352636</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1274607812.452718</v>
+        <v>915046558.4975066</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1131578074083863</v>
+        <v>0.08350754972081442</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02987111053750114</v>
+        <v>0.03483567300315683</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>637303945.5472691</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4463411226.237164</v>
+        <v>4123249179.699483</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1077268718251422</v>
+        <v>0.1297573962882345</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01818418270431249</v>
+        <v>0.01821298040310247</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2231705600.208249</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3183334953.269569</v>
+        <v>3609264599.615124</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1180089535236374</v>
+        <v>0.1277473765574006</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04015458186582129</v>
+        <v>0.03466378068202038</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>57</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1591667503.733607</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5386674483.903052</v>
+        <v>3775386879.937912</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1515349088115126</v>
+        <v>0.1264819298600674</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04513832754025882</v>
+        <v>0.03392821101881793</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2693337162.655725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1609283982.8143</v>
+        <v>2017941470.304899</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08573258121763835</v>
+        <v>0.1278780739222138</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03251202884502116</v>
+        <v>0.03742181836874989</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>804641984.3712249</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1030853495.103611</v>
+        <v>1146600459.148107</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08441065831761983</v>
+        <v>0.09030740152178729</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0428169535734528</v>
+        <v>0.03841471632678316</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>515426738.8060458</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1402033489.616907</v>
+        <v>1568431508.24153</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049170362224662</v>
+        <v>0.07626390611505497</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03571651483447438</v>
+        <v>0.03254284521563728</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>701016792.835826</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2455204224.87768</v>
+        <v>2331667574.064375</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2006701777077927</v>
+        <v>0.1389533874594176</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04889927453448267</v>
+        <v>0.04684520535771964</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>53</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1227602154.450044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1161547823.975599</v>
+        <v>1437344349.130426</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08445531632252322</v>
+        <v>0.08391680025502066</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01848485549218667</v>
+        <v>0.02451120345441913</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>580773923.3260394</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1293088464.037373</v>
+        <v>1286256483.130096</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09986890559508457</v>
+        <v>0.07549386919935266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03968935424857963</v>
+        <v>0.03477572972578703</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>646544186.2893074</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2821527791.161028</v>
+        <v>2857207534.702602</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1438381716058174</v>
+        <v>0.1766236504664805</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02761721079550323</v>
+        <v>0.02839145882702305</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1410763891.768254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2747840379.39558</v>
+        <v>2821202023.865921</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07390034041876975</v>
+        <v>0.07420844210887415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02816631266626193</v>
+        <v>0.04243200877964141</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>49</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1373920319.832292</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1906077851.630455</v>
+        <v>1515809569.257713</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09172381867546471</v>
+        <v>0.09202438096762043</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02517958795142163</v>
+        <v>0.03855344115279315</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>953038917.6816838</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2015043760.130376</v>
+        <v>2149157329.481112</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1344404774770652</v>
+        <v>0.1797758163886009</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02678728276697644</v>
+        <v>0.02177182870239745</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1007521872.309804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1433704939.91413</v>
+        <v>1210473726.853119</v>
       </c>
       <c r="F40" t="n">
-        <v>0.108848511249933</v>
+        <v>0.1602985828561816</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05508364963462837</v>
+        <v>0.05521245478769925</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>716852452.7277287</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2559415029.779229</v>
+        <v>2109121760.290263</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1175262111536836</v>
+        <v>0.1188993711442016</v>
       </c>
       <c r="G41" t="n">
-        <v>0.029611074172535</v>
+        <v>0.04483892122809282</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1279707534.307575</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4009513466.574776</v>
+        <v>4125613573.946864</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09085415268147458</v>
+        <v>0.08369069654660977</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03959740995621062</v>
+        <v>0.03438923922283441</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2004756763.186555</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2048987543.890305</v>
+        <v>3069434851.142078</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1614470009551486</v>
+        <v>0.15954861346144</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02567778414471202</v>
+        <v>0.01841890997520074</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>61</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1024493865.941762</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2265857048.730241</v>
+        <v>2200824675.070409</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09906971584052898</v>
+        <v>0.06808039135199324</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02829364244552354</v>
+        <v>0.02406303472941174</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1132928683.724187</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1581019551.947484</v>
+        <v>2142563610.711934</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1283273939505775</v>
+        <v>0.1475671790365152</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04838432122390857</v>
+        <v>0.05265357550713563</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>790509724.6188837</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5590299417.514469</v>
+        <v>3789259726.98466</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1474299159481011</v>
+        <v>0.1280909547269553</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05996188116795471</v>
+        <v>0.05672055593550074</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>62</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2795149769.302417</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3640824198.417573</v>
+        <v>3628064368.298119</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1940387091703644</v>
+        <v>0.1618629862896142</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04255010479606093</v>
+        <v>0.03940418833591017</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>47</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1820412077.970358</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3140992689.849095</v>
+        <v>4481254214.294153</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1090484214630461</v>
+        <v>0.0720657654876655</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02746940412675567</v>
+        <v>0.03164806438102392</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>57</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1570496429.207525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1902845173.458466</v>
+        <v>1755005118.897246</v>
       </c>
       <c r="F49" t="n">
-        <v>0.134950697625295</v>
+        <v>0.1643921692715512</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03499541541156733</v>
+        <v>0.03662923405824965</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>951422556.0883187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3313866101.108228</v>
+        <v>3943106166.196422</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1678422028699879</v>
+        <v>0.1536294001557467</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04799786552956495</v>
+        <v>0.03344601769775644</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>59</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1656933088.0463</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1221423671.312726</v>
+        <v>1400314968.573871</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165237714115173</v>
+        <v>0.1464627569080002</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05275670056908369</v>
+        <v>0.03302203022181832</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>610711883.6940107</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4440348630.876748</v>
+        <v>3918462987.176303</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1367164688694998</v>
+        <v>0.09703286818318024</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04617873373437451</v>
+        <v>0.05862066402506311</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>72</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2220174345.966899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3576782549.15186</v>
+        <v>3105882321.687997</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1744082415291427</v>
+        <v>0.1956545738869873</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02770831516853945</v>
+        <v>0.02773661884457009</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>50</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1788391267.19127</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4292710022.009553</v>
+        <v>4709171131.908148</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1042554559671966</v>
+        <v>0.1160187686233681</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03575439812045349</v>
+        <v>0.03888258001501266</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2146355098.047271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3818093008.6724</v>
+        <v>4227928624.031435</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1776573704151287</v>
+        <v>0.135304629664634</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03038100686288536</v>
+        <v>0.02932651963951767</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>45</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1909046471.178091</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1787662268.625886</v>
+        <v>1406691150.812595</v>
       </c>
       <c r="F56" t="n">
-        <v>0.109201284010248</v>
+        <v>0.1423352428370159</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05070260760368384</v>
+        <v>0.03842261622133226</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>893831133.8926486</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3815893106.746742</v>
+        <v>4002431860.412569</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1692052105376051</v>
+        <v>0.1231074172162211</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02520889928110583</v>
+        <v>0.02113832720253098</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1907946626.258605</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1462087917.744871</v>
+        <v>1419139413.604972</v>
       </c>
       <c r="F58" t="n">
-        <v>0.200454471180516</v>
+        <v>0.1677788007356655</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03285026931852081</v>
+        <v>0.03442097831717148</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>731043993.4350171</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3675039203.813726</v>
+        <v>4981275295.510575</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113029869716773</v>
+        <v>0.123390735027815</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03695878847553369</v>
+        <v>0.04081029832943493</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1837519593.473983</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3076561953.992029</v>
+        <v>3649613803.079723</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1376473367110427</v>
+        <v>0.1769456652446091</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02218397337390563</v>
+        <v>0.02927554386590987</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>56</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1538281055.351587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2185949310.525153</v>
+        <v>2447546601.567094</v>
       </c>
       <c r="F61" t="n">
-        <v>0.164393580225125</v>
+        <v>0.175759043364584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03080987150676103</v>
+        <v>0.02319473978673301</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>61</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1092974712.468457</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1617659800.955738</v>
+        <v>2082805357.696288</v>
       </c>
       <c r="F62" t="n">
-        <v>0.153924782318178</v>
+        <v>0.188521063400314</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04471478308972548</v>
+        <v>0.04983943493919748</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>808829901.1553837</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4741950418.170327</v>
+        <v>3392368398.934049</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06618178951991169</v>
+        <v>0.09235852098495638</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03853604248778397</v>
+        <v>0.04372479184459706</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2370975238.323009</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3788184078.42881</v>
+        <v>3862795854.209654</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1376147443075549</v>
+        <v>0.1681549054144021</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03087194881246589</v>
+        <v>0.02527649731444145</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>54</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1894092060.148197</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5787623054.845857</v>
+        <v>4501561851.857811</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1255086482602024</v>
+        <v>0.1132018508757553</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02020545631383201</v>
+        <v>0.02097319283562287</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>63</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2893811439.315639</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5731865983.814224</v>
+        <v>4644448263.139154</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1007479778022067</v>
+        <v>0.1336739276682942</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04990129517217091</v>
+        <v>0.04821255957623495</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>51</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2865933058.255141</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3295534391.023585</v>
+        <v>3254697597.643472</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07982389448994143</v>
+        <v>0.08259931512732455</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04726684194970952</v>
+        <v>0.04436935075850044</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>56</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1647767188.76393</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4930856139.538504</v>
+        <v>3695187736.69618</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1388223523663271</v>
+        <v>0.09664180273131162</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04816121622188755</v>
+        <v>0.04510469665416678</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2465428121.948885</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2333705187.232188</v>
+        <v>1956314071.832084</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1352253430637375</v>
+        <v>0.1414034436892877</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03850296683843825</v>
+        <v>0.04213088816516777</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1166852641.711296</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2433380389.803383</v>
+        <v>3687268490.258639</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100058207314589</v>
+        <v>0.1026111644473266</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03278273673408418</v>
+        <v>0.0462109982331082</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>50</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1216690134.999566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4481193463.025474</v>
+        <v>5312356388.859458</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1382806414810112</v>
+        <v>0.1206133352924026</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02404328030871357</v>
+        <v>0.03179337066887369</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>63</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2240596798.459056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1738891734.3298</v>
+        <v>1545156793.343883</v>
       </c>
       <c r="F72" t="n">
-        <v>0.080138220864406</v>
+        <v>0.0763933950883413</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03496883356010685</v>
+        <v>0.04928538035224499</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>869445855.6137491</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2952013615.01401</v>
+        <v>2861083676.980474</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1036383296943807</v>
+        <v>0.1093298215860852</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0451052412780882</v>
+        <v>0.05010887898046427</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1476006807.838031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3308360865.29177</v>
+        <v>3192487389.831601</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1718451092613036</v>
+        <v>0.122764058224316</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0277454734198174</v>
+        <v>0.02236533197525145</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>59</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1654180471.355394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1937618565.426036</v>
+        <v>2309801905.212447</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1494279367087084</v>
+        <v>0.1156875515773855</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0229259062143659</v>
+        <v>0.02586567849065938</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>968809252.7737715</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3307287317.825209</v>
+        <v>5068281034.377869</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09251203334860651</v>
+        <v>0.1031438031837845</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03321716152794801</v>
+        <v>0.03035210986847869</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>40</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1653643614.522927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1899870618.104166</v>
+        <v>1961513311.100951</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1614994087281821</v>
+        <v>0.1642159786665931</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02569059523915297</v>
+        <v>0.02012883399732962</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>949935355.7244771</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4268367913.865085</v>
+        <v>3797936457.393881</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0981319766508949</v>
+        <v>0.1083208664777492</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05273664425039063</v>
+        <v>0.05481353457172543</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>61</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2134183903.428014</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1276564432.712556</v>
+        <v>1467653499.274488</v>
       </c>
       <c r="F79" t="n">
-        <v>0.164561795406362</v>
+        <v>0.119099210274599</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03865556570045063</v>
+        <v>0.0333324248293812</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>638282211.4681959</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3439349837.327846</v>
+        <v>5019687249.086888</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1059804062863598</v>
+        <v>0.09992291276880189</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03135035436809201</v>
+        <v>0.03182046125718851</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>36</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1719674890.223788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4668309087.833389</v>
+        <v>4871081536.725452</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1199133043186246</v>
+        <v>0.09233691941216852</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02517338148284105</v>
+        <v>0.02088965923694433</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2334154531.910398</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5081936391.631624</v>
+        <v>4326468875.837764</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2045777130847899</v>
+        <v>0.1704180962151189</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02866362669246042</v>
+        <v>0.02733598957957818</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2540968175.18255</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2240583822.658496</v>
+        <v>2116217453.307407</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1573690618049819</v>
+        <v>0.1039173039820315</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04208596245141115</v>
+        <v>0.03334660131320368</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1120291926.592886</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2551904728.03534</v>
+        <v>1941570978.702449</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08626199384918889</v>
+        <v>0.1111319166474178</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0505039451851954</v>
+        <v>0.03771781142847772</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1275952288.146358</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2517290047.235435</v>
+        <v>3210898527.873552</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1653029589979779</v>
+        <v>0.1243676364012861</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05357090695501789</v>
+        <v>0.04306890151743372</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>66</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1258645030.451908</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2594613586.976273</v>
+        <v>2518286923.544267</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1304251488980052</v>
+        <v>0.1129716189773662</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02075562555943057</v>
+        <v>0.02370439938287286</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>24</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1297306903.75283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1338658456.156924</v>
+        <v>1368598334.680868</v>
       </c>
       <c r="F87" t="n">
-        <v>0.170638033294877</v>
+        <v>0.1856123114350605</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03215699586430842</v>
+        <v>0.0398956008185995</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>669329319.1682645</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2768847093.408625</v>
+        <v>2250504090.288564</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1545566337682865</v>
+        <v>0.1584138835068388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03067756481849787</v>
+        <v>0.02788910217574113</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>69</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1384423554.275151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2375029183.470905</v>
+        <v>2750126325.274348</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1322242612058362</v>
+        <v>0.1505306019047915</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02790199015534952</v>
+        <v>0.03102125270286833</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1187514675.641857</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1759259148.553818</v>
+        <v>2006382632.15624</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1039183715276491</v>
+        <v>0.1375159282630433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05419097350635357</v>
+        <v>0.05088715386820723</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>879629600.4063468</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1656271824.505283</v>
+        <v>1865221936.825157</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1445379596175032</v>
+        <v>0.1291592600659279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05152787014418626</v>
+        <v>0.05489892664904276</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>828135930.3020012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1877013984.598698</v>
+        <v>2986914709.052376</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07899576908520189</v>
+        <v>0.09230778495171982</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0294442143729562</v>
+        <v>0.03318723708554241</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>43</v>
-      </c>
-      <c r="J92" t="n">
-        <v>938506929.1645966</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3118618147.281454</v>
+        <v>4938678028.694841</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09729709986595761</v>
+        <v>0.1167462023940428</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05059294410152104</v>
+        <v>0.03878788235651515</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1559309131.229666</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1796040810.06224</v>
+        <v>2485393175.078813</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1177051482952102</v>
+        <v>0.1409393351033477</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02660603551878049</v>
+        <v>0.03670255873320341</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>898020376.7763131</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2177968651.813077</v>
+        <v>2473426773.025595</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1044109171875427</v>
+        <v>0.1126334672310115</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05008912764971161</v>
+        <v>0.0431362412561539</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>42</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1088984385.421354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2317233770.321829</v>
+        <v>1716562362.074489</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1291922862665165</v>
+        <v>0.1349314556698851</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02979483388232802</v>
+        <v>0.0418626564530808</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1158616838.236995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4804291057.646827</v>
+        <v>5123549586.985452</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1635876823691061</v>
+        <v>0.1603588752254662</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02385164036283663</v>
+        <v>0.01855740745251946</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2402145649.854859</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2894118752.742486</v>
+        <v>3387032228.450335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08976295290251578</v>
+        <v>0.1168145997553767</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02730464303632223</v>
+        <v>0.0286729399663329</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>46</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1447059353.852191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2237766108.427703</v>
+        <v>2884852993.011077</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1017838396642886</v>
+        <v>0.1129712092497935</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02273708198358871</v>
+        <v>0.03487946641165606</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1118882984.89032</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4150415017.128672</v>
+        <v>3254068696.077261</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1260001113827615</v>
+        <v>0.1185102992785029</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01725322968276003</v>
+        <v>0.01960628752927043</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2075207591.205666</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3454407670.089067</v>
+        <v>2253767944.096618</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1520199623495835</v>
+        <v>0.1711685281148108</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05702166200180901</v>
+        <v>0.04961612626812574</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>71</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1727203984.099903</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_175.xlsx
+++ b/output/fit_clients/fit_round_175.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2160502712.042642</v>
+        <v>2152495536.177696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1060655630584481</v>
+        <v>0.105841212450726</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03838613261859891</v>
+        <v>0.02772772111972181</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1785837129.143085</v>
+        <v>1630264458.307822</v>
       </c>
       <c r="F3" t="n">
-        <v>0.151733084527578</v>
+        <v>0.1143349497185638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0339814135958432</v>
+        <v>0.04663085890564046</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4427412159.427551</v>
+        <v>4987658709.462316</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1224684659070354</v>
+        <v>0.1337934799639816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03431316869268212</v>
+        <v>0.02994775328629712</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3461865716.73434</v>
+        <v>3707469696.454979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09141113221756041</v>
+        <v>0.07889679267422108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04111146323220856</v>
+        <v>0.03494127456036134</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2425378557.466678</v>
+        <v>2480034144.952757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1383767761655738</v>
+        <v>0.1458884788195183</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03522487929525511</v>
+        <v>0.04997951583332582</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2806671626.10969</v>
+        <v>2490128065.185077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0909396892563225</v>
+        <v>0.0640365708513638</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03780188156417068</v>
+        <v>0.0367854658700919</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3479825347.311488</v>
+        <v>3170886763.053042</v>
       </c>
       <c r="F8" t="n">
-        <v>0.171058964439427</v>
+        <v>0.2046844094837079</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02909548247997339</v>
+        <v>0.03122034938897858</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1588693849.772091</v>
+        <v>1826051587.75329</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1640548256174015</v>
+        <v>0.1410930167310422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03344705071624273</v>
+        <v>0.03417052707561288</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5114662610.320168</v>
+        <v>5318583157.000423</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131598906697904</v>
+        <v>0.175067646747175</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05339598162511981</v>
+        <v>0.0448147070060237</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3180681380.418789</v>
+        <v>3106467859.481698</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1384065980017483</v>
+        <v>0.1686574470499237</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0490222317780597</v>
+        <v>0.04262450343671906</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2224909279.704585</v>
+        <v>2107618691.718196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1395699073759673</v>
+        <v>0.1211324709614456</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05037601003325712</v>
+        <v>0.03833480991000671</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4456170665.292197</v>
+        <v>5290563557.848481</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09065661901969994</v>
+        <v>0.06978443983420043</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02000507149113409</v>
+        <v>0.0274834681093227</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2984140779.527039</v>
+        <v>3437057838.858812</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1353746672344462</v>
+        <v>0.1561499099990982</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03860526229262079</v>
+        <v>0.03447290890920714</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1675682338.095208</v>
+        <v>1500099258.358122</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070689052304529</v>
+        <v>0.09664964512923267</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03836848854094242</v>
+        <v>0.03881533548393204</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1967283023.874913</v>
+        <v>1812454969.002688</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07882119169807492</v>
+        <v>0.1032119236936834</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03674870350197233</v>
+        <v>0.04626207531728984</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4308627749.89114</v>
+        <v>4590709244.099138</v>
       </c>
       <c r="F17" t="n">
-        <v>0.167435264430618</v>
+        <v>0.1721694900498754</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04635360086094038</v>
+        <v>0.04313688241081184</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2876968689.689002</v>
+        <v>3632923834.296484</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1183677778221607</v>
+        <v>0.116629840537589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03019173066297463</v>
+        <v>0.02769948473613671</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1274863760.996096</v>
+        <v>1190834246.795966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1667479994684996</v>
+        <v>0.1358671203086666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02243289782233105</v>
+        <v>0.02370957976510069</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2022926096.371777</v>
+        <v>2523161633.72371</v>
       </c>
       <c r="F20" t="n">
-        <v>0.160756463619887</v>
+        <v>0.131868410362477</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02419837401817981</v>
+        <v>0.02547731031322027</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2115306714.323421</v>
+        <v>1739175807.009958</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09608755917470475</v>
+        <v>0.0793626273180624</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03848876754063757</v>
+        <v>0.03530812817488312</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3746264207.870411</v>
+        <v>3681861935.236</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1342113516597535</v>
+        <v>0.1300195741212624</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04806513347101957</v>
+        <v>0.05270932711191378</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1456594673.581714</v>
+        <v>1437670803.28034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1468303227353666</v>
+        <v>0.17272927326132</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03597971922755359</v>
+        <v>0.04197120473358532</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2932493230.358377</v>
+        <v>2688312302.457956</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1358458005432392</v>
+        <v>0.1431539810187246</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03477390841222402</v>
+        <v>0.03756511461545117</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1242528419.353534</v>
+        <v>1255722489.972268</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09708472168975625</v>
+        <v>0.07488578754621002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02090693968216229</v>
+        <v>0.0203662474587494</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>915046558.4975066</v>
+        <v>1417470834.949775</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08350754972081442</v>
+        <v>0.07693448621826686</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03483567300315683</v>
+        <v>0.02352944852377119</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4123249179.699483</v>
+        <v>3207054220.464245</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1297573962882345</v>
+        <v>0.1296055547752951</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01821298040310247</v>
+        <v>0.02284221210863347</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3609264599.615124</v>
+        <v>3244054536.052307</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1277473765574006</v>
+        <v>0.09313882101102511</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03466378068202038</v>
+        <v>0.04436077383414644</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3775386879.937912</v>
+        <v>5167283654.035236</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1264819298600674</v>
+        <v>0.1331739889893022</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03392821101881793</v>
+        <v>0.03728505961494308</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2017941470.304899</v>
+        <v>1561652780.018155</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1278780739222138</v>
+        <v>0.1363819029392309</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03742181836874989</v>
+        <v>0.03577701492855439</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1146600459.148107</v>
+        <v>1485294175.357057</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09030740152178729</v>
+        <v>0.0896791020762452</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03841471632678316</v>
+        <v>0.0381803797751335</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1568431508.24153</v>
+        <v>1840904675.400195</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07626390611505497</v>
+        <v>0.1169575952154897</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03254284521563728</v>
+        <v>0.03170505316061906</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2331667574.064375</v>
+        <v>2878420001.139915</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1389533874594176</v>
+        <v>0.1777812500988714</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04684520535771964</v>
+        <v>0.04229048960617728</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1437344349.130426</v>
+        <v>1252892353.22657</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08391680025502066</v>
+        <v>0.1005393355124136</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02451120345441913</v>
+        <v>0.02312750239805228</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1286256483.130096</v>
+        <v>876558160.7915143</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07549386919935266</v>
+        <v>0.1102422048683083</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03477572972578703</v>
+        <v>0.04244437477189909</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2857207534.702602</v>
+        <v>2838480462.912214</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1766236504664805</v>
+        <v>0.1218898196181238</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02839145882702305</v>
+        <v>0.01780361712045758</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2821202023.865921</v>
+        <v>2058401173.289832</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07420844210887415</v>
+        <v>0.09686202460085963</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04243200877964141</v>
+        <v>0.04222924462419892</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1515809569.257713</v>
+        <v>1719473450.105314</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09202438096762043</v>
+        <v>0.09180433551162162</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03855344115279315</v>
+        <v>0.03404298322244562</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2149157329.481112</v>
+        <v>2068598514.213346</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1797758163886009</v>
+        <v>0.1882866257591172</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02177182870239745</v>
+        <v>0.02383609740324498</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1210473726.853119</v>
+        <v>1440440671.921805</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1602985828561816</v>
+        <v>0.1063238080646158</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05521245478769925</v>
+        <v>0.03759463319259014</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2109121760.290263</v>
+        <v>2326165117.433166</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1188993711442016</v>
+        <v>0.1429503708951866</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04483892122809282</v>
+        <v>0.03569674649176992</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4125613573.946864</v>
+        <v>3171073182.840409</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08369069654660977</v>
+        <v>0.09732337813685731</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03438923922283441</v>
+        <v>0.03125096961449922</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3069434851.142078</v>
+        <v>2169289742.333712</v>
       </c>
       <c r="F43" t="n">
-        <v>0.15954861346144</v>
+        <v>0.2026988336671111</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01841890997520074</v>
+        <v>0.02209780938136971</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2200824675.070409</v>
+        <v>1592095306.908963</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06808039135199324</v>
+        <v>0.08569705730680889</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02406303472941174</v>
+        <v>0.02655412380371255</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2142563610.711934</v>
+        <v>1940988665.266597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1475671790365152</v>
+        <v>0.1205025341640551</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05265357550713563</v>
+        <v>0.04468611015784195</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3789259726.98466</v>
+        <v>4033985108.798353</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1280909547269553</v>
+        <v>0.1477973547411741</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05672055593550074</v>
+        <v>0.04977921862819526</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3628064368.298119</v>
+        <v>4110123257.285374</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1618629862896142</v>
+        <v>0.1748242402155057</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03940418833591017</v>
+        <v>0.03785139982861385</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4481254214.294153</v>
+        <v>4631727760.26276</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0720657654876655</v>
+        <v>0.07969879389054728</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03164806438102392</v>
+        <v>0.03694260222736782</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1755005118.897246</v>
+        <v>1291738782.152001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1643921692715512</v>
+        <v>0.1555132960498697</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03662923405824965</v>
+        <v>0.02999022145747362</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3943106166.196422</v>
+        <v>4205909761.803585</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1536294001557467</v>
+        <v>0.1785574150297915</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03344601769775644</v>
+        <v>0.04362425931201677</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1400314968.573871</v>
+        <v>1013008170.07786</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1464627569080002</v>
+        <v>0.1756196234438883</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03302203022181832</v>
+        <v>0.05142874240656042</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3918462987.176303</v>
+        <v>3339653210.169778</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09703286818318024</v>
+        <v>0.1214559248850262</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05862066402506311</v>
+        <v>0.04314194598653609</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3105882321.687997</v>
+        <v>3515086376.40422</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1956545738869873</v>
+        <v>0.1834603630677674</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02773661884457009</v>
+        <v>0.03315555377254706</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4709171131.908148</v>
+        <v>3218479766.77486</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1160187686233681</v>
+        <v>0.1147361593545077</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03888258001501266</v>
+        <v>0.04196216979919627</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4227928624.031435</v>
+        <v>3029829510.684707</v>
       </c>
       <c r="F55" t="n">
-        <v>0.135304629664634</v>
+        <v>0.1988210513614749</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02932651963951767</v>
+        <v>0.02832524416247951</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1406691150.812595</v>
+        <v>1432080258.31751</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1423352428370159</v>
+        <v>0.1124256889760733</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03842261622133226</v>
+        <v>0.0467271351090634</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4002431860.412569</v>
+        <v>4267956286.492004</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1231074172162211</v>
+        <v>0.1427251615827979</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02113832720253098</v>
+        <v>0.02675143805826004</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1419139413.604972</v>
+        <v>1847436111.9861</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1677788007356655</v>
+        <v>0.1474693225589392</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03442097831717148</v>
+        <v>0.03387345884346537</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4981275295.510575</v>
+        <v>4584649022.277015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.123390735027815</v>
+        <v>0.08970529552626903</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04081029832943493</v>
+        <v>0.04317835407868149</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3649613803.079723</v>
+        <v>3366069099.23964</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1769456652446091</v>
+        <v>0.1607768189088148</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02927554386590987</v>
+        <v>0.02708596619614057</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2447546601.567094</v>
+        <v>3031824722.576109</v>
       </c>
       <c r="F61" t="n">
-        <v>0.175759043364584</v>
+        <v>0.1694710239637908</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02319473978673301</v>
+        <v>0.0209179461222998</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2082805357.696288</v>
+        <v>1376800695.182245</v>
       </c>
       <c r="F62" t="n">
-        <v>0.188521063400314</v>
+        <v>0.1388673398655519</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04983943493919748</v>
+        <v>0.04090465812845279</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3392368398.934049</v>
+        <v>4697071368.564615</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09235852098495638</v>
+        <v>0.1011239165383753</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04372479184459706</v>
+        <v>0.03104707759015581</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3862795854.209654</v>
+        <v>5208827864.332557</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1681549054144021</v>
+        <v>0.1349858908343308</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02527649731444145</v>
+        <v>0.02655533748495098</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4501561851.857811</v>
+        <v>5921875390.308402</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1132018508757553</v>
+        <v>0.1178909961912886</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02097319283562287</v>
+        <v>0.03163380132645129</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4644448263.139154</v>
+        <v>4615755339.358439</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1336739276682942</v>
+        <v>0.1623984997128035</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04821255957623495</v>
+        <v>0.04646666972340338</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3254697597.643472</v>
+        <v>3248903672.390858</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08259931512732455</v>
+        <v>0.07951518605782171</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04436935075850044</v>
+        <v>0.04620588605985905</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3695187736.69618</v>
+        <v>5903945833.097113</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09664180273131162</v>
+        <v>0.1397555285424102</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04510469665416678</v>
+        <v>0.03316270486893064</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1956314071.832084</v>
+        <v>2250289842.40945</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1414034436892877</v>
+        <v>0.143295402419132</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04213088816516777</v>
+        <v>0.05562651769554981</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3687268490.258639</v>
+        <v>3665577210.515272</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1026111644473266</v>
+        <v>0.0798183589065344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0462109982331082</v>
+        <v>0.03167480834526858</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5312356388.859458</v>
+        <v>3892358280.238374</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1206133352924026</v>
+        <v>0.1348749531800181</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03179337066887369</v>
+        <v>0.02410511521421064</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1545156793.343883</v>
+        <v>1516166535.949324</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0763933950883413</v>
+        <v>0.1065844672048032</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04928538035224499</v>
+        <v>0.05297623551212773</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2861083676.980474</v>
+        <v>2386455684.957516</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093298215860852</v>
+        <v>0.07205289274137161</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05010887898046427</v>
+        <v>0.04841211871270901</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3192487389.831601</v>
+        <v>3347173170.282487</v>
       </c>
       <c r="F74" t="n">
-        <v>0.122764058224316</v>
+        <v>0.1399135746097771</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02236533197525145</v>
+        <v>0.0280362699256164</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2309801905.212447</v>
+        <v>1778058590.461626</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1156875515773855</v>
+        <v>0.1433071940130662</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02586567849065938</v>
+        <v>0.02440794958314668</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5068281034.377869</v>
+        <v>4710723716.105677</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1031438031837845</v>
+        <v>0.1073445148475781</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03035210986847869</v>
+        <v>0.02968277357575908</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1961513311.100951</v>
+        <v>1628814416.931288</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1642159786665931</v>
+        <v>0.1781300040104906</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02012883399732962</v>
+        <v>0.02524081426067018</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3797936457.393881</v>
+        <v>3628767521.999726</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1083208664777492</v>
+        <v>0.1009008588395154</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05481353457172543</v>
+        <v>0.03912510291881636</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1467653499.274488</v>
+        <v>1856939262.216689</v>
       </c>
       <c r="F79" t="n">
-        <v>0.119099210274599</v>
+        <v>0.1311315235852945</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0333324248293812</v>
+        <v>0.02667869136012445</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5019687249.086888</v>
+        <v>4210844034.405064</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09992291276880189</v>
+        <v>0.1111263242985888</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03182046125718851</v>
+        <v>0.03134491858832558</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4871081536.725452</v>
+        <v>3281194469.575318</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09233691941216852</v>
+        <v>0.1086352913612863</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02088965923694433</v>
+        <v>0.02483055099209046</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4326468875.837764</v>
+        <v>3496623984.902877</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1704180962151189</v>
+        <v>0.1693954322602984</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02733598957957818</v>
+        <v>0.02673191370615586</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2116217453.307407</v>
+        <v>1925034653.70921</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1039173039820315</v>
+        <v>0.1176535105143856</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03334660131320368</v>
+        <v>0.04335235027862005</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1941570978.702449</v>
+        <v>1677315692.491031</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1111319166474178</v>
+        <v>0.08676651600923009</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03771781142847772</v>
+        <v>0.04485515852587917</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3210898527.873552</v>
+        <v>3639155689.389634</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1243676364012861</v>
+        <v>0.1324691876028483</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04306890151743372</v>
+        <v>0.05066532648473716</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2518286923.544267</v>
+        <v>2158595785.233306</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1129716189773662</v>
+        <v>0.1478087210539877</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02370439938287286</v>
+        <v>0.02680289045240846</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1368598334.680868</v>
+        <v>1162339996.7827</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1856123114350605</v>
+        <v>0.1886467962261189</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0398956008185995</v>
+        <v>0.0283917054750655</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2250504090.288564</v>
+        <v>3685389225.2768</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1584138835068388</v>
+        <v>0.1770525401461815</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02788910217574113</v>
+        <v>0.03782448747649651</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2750126325.274348</v>
+        <v>2320900500.214901</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1505306019047915</v>
+        <v>0.121392602860307</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03102125270286833</v>
+        <v>0.0346794546828452</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2006382632.15624</v>
+        <v>1951471079.019574</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1375159282630433</v>
+        <v>0.1094911363831081</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05088715386820723</v>
+        <v>0.04567077675621264</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1865221936.825157</v>
+        <v>1930951217.400594</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1291592600659279</v>
+        <v>0.1384058530487484</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05489892664904276</v>
+        <v>0.04669548410022294</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2986914709.052376</v>
+        <v>2165950047.962977</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09230778495171982</v>
+        <v>0.087327954974349</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03318723708554241</v>
+        <v>0.04683422851230793</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4938678028.694841</v>
+        <v>3066362965.555524</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1167462023940428</v>
+        <v>0.1094486173273203</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03878788235651515</v>
+        <v>0.04478260316818444</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2485393175.078813</v>
+        <v>2036697476.354061</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1409393351033477</v>
+        <v>0.1221257956185186</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03670255873320341</v>
+        <v>0.0413285766442395</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2473426773.025595</v>
+        <v>2730351189.185205</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1126334672310115</v>
+        <v>0.1240729492758947</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0431362412561539</v>
+        <v>0.04185605171436223</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1716562362.074489</v>
+        <v>1567694182.817415</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1349314556698851</v>
+        <v>0.09565982786395663</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0418626564530808</v>
+        <v>0.04560882466255192</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5123549586.985452</v>
+        <v>4846983438.36909</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1603588752254662</v>
+        <v>0.1565371366999947</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01855740745251946</v>
+        <v>0.02487732239163848</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3387032228.450335</v>
+        <v>2375758498.092066</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1168145997553767</v>
+        <v>0.1170617965206694</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0286729399663329</v>
+        <v>0.02631254604918318</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2884852993.011077</v>
+        <v>3242220760.751622</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1129712092497935</v>
+        <v>0.1160088567649006</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03487946641165606</v>
+        <v>0.02201149635069139</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3254068696.077261</v>
+        <v>3442034188.528333</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1185102992785029</v>
+        <v>0.1494617518402874</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01960628752927043</v>
+        <v>0.02008979322754834</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2253767944.096618</v>
+        <v>3214190972.176207</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1711685281148108</v>
+        <v>0.1662658802823989</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04961612626812574</v>
+        <v>0.03975243783939526</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_175.xlsx
+++ b/output/fit_clients/fit_round_175.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2152495536.177696</v>
+        <v>1706970211.729092</v>
       </c>
       <c r="F2" t="n">
-        <v>0.105841212450726</v>
+        <v>0.08110769985535973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02772772111972181</v>
+        <v>0.03826319338658324</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1630264458.307822</v>
+        <v>2185490797.414586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1143349497185638</v>
+        <v>0.1836643833002864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04663085890564046</v>
+        <v>0.03723725484825967</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4987658709.462316</v>
+        <v>4435808148.138087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1337934799639816</v>
+        <v>0.1551064631440272</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02994775328629712</v>
+        <v>0.02663787767609125</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>174</v>
+      </c>
+      <c r="K4" t="n">
+        <v>127.3651385073626</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3707469696.454979</v>
+        <v>3899196394.745455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07889679267422108</v>
+        <v>0.07808935354824517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03494127456036134</v>
+        <v>0.03733939663713981</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>71</v>
+      </c>
+      <c r="J5" t="n">
+        <v>175</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2480034144.952757</v>
+        <v>2641437816.532451</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1458884788195183</v>
+        <v>0.1291436736749249</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04997951583332582</v>
+        <v>0.04926765970140401</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2490128065.185077</v>
+        <v>2508757844.561636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0640365708513638</v>
+        <v>0.09867918924364691</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0367854658700919</v>
+        <v>0.03350072407434433</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3170886763.053042</v>
+        <v>2509471238.370887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2046844094837079</v>
+        <v>0.1948114290777292</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03122034938897858</v>
+        <v>0.02996526424930621</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1826051587.75329</v>
+        <v>1603492674.469573</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1410930167310422</v>
+        <v>0.1953075883757238</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03417052707561288</v>
+        <v>0.02638010774905821</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5318583157.000423</v>
+        <v>4111357887.204202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.175067646747175</v>
+        <v>0.1306644940155525</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0448147070060237</v>
+        <v>0.03514833827064726</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>161</v>
+      </c>
+      <c r="J10" t="n">
+        <v>175</v>
+      </c>
+      <c r="K10" t="n">
+        <v>142.0105065172093</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3106467859.481698</v>
+        <v>3598105707.255616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1686574470499237</v>
+        <v>0.1733926126843559</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04262450343671906</v>
+        <v>0.04259483590218523</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>174</v>
+      </c>
+      <c r="K11" t="n">
+        <v>109.5233324062271</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2107618691.718196</v>
+        <v>3120521100.59174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1211324709614456</v>
+        <v>0.134447037742066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03833480991000671</v>
+        <v>0.03921909892260289</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5290563557.848481</v>
+        <v>4193020184.161759</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06978443983420043</v>
+        <v>0.08322769353395876</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0274834681093227</v>
+        <v>0.02669332521484181</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>86</v>
+      </c>
+      <c r="J13" t="n">
+        <v>175</v>
+      </c>
+      <c r="K13" t="n">
+        <v>128.0956966215254</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3437057838.858812</v>
+        <v>2525041418.575162</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1561499099990982</v>
+        <v>0.1155005488857971</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03447290890920714</v>
+        <v>0.02790562304251078</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>173</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1500099258.358122</v>
+        <v>1728053683.143688</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09664964512923267</v>
+        <v>0.0925498348327404</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03881533548393204</v>
+        <v>0.04471603110937047</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1812454969.002688</v>
+        <v>2161085277.344193</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1032119236936834</v>
+        <v>0.09129697253066608</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04626207531728984</v>
+        <v>0.03971236117685891</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4590709244.099138</v>
+        <v>3989046156.302764</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1721694900498754</v>
+        <v>0.1624286242471575</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04313688241081184</v>
+        <v>0.03372846142972805</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>84</v>
+      </c>
+      <c r="J17" t="n">
+        <v>174</v>
+      </c>
+      <c r="K17" t="n">
+        <v>115.3358330564891</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3632923834.296484</v>
+        <v>3159252119.91445</v>
       </c>
       <c r="F18" t="n">
-        <v>0.116629840537589</v>
+        <v>0.1163179365158027</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02769948473613671</v>
+        <v>0.03327228689305228</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="n">
+        <v>77.94486702992442</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1190834246.795966</v>
+        <v>1097803179.082161</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1358671203086666</v>
+        <v>0.1355485130707822</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02370957976510069</v>
+        <v>0.02039123649003479</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2523161633.72371</v>
+        <v>2760170711.501414</v>
       </c>
       <c r="F20" t="n">
-        <v>0.131868410362477</v>
+        <v>0.1318825252143891</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02547731031322027</v>
+        <v>0.0305351380493143</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1739175807.009958</v>
+        <v>2680189725.055791</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0793626273180624</v>
+        <v>0.08183420838606269</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03530812817488312</v>
+        <v>0.03729131703852124</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3681861935.236</v>
+        <v>2822345953.042778</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1300195741212624</v>
+        <v>0.1286267136912311</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05270932711191378</v>
+        <v>0.05344791070155909</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>173</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1437670803.28034</v>
+        <v>1086494456.187703</v>
       </c>
       <c r="F23" t="n">
-        <v>0.17272927326132</v>
+        <v>0.1529204313579434</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04197120473358532</v>
+        <v>0.03473361637555197</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2688312302.457956</v>
+        <v>3959434755.342966</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1431539810187246</v>
+        <v>0.124673205865196</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03756511461545117</v>
+        <v>0.03270887627737416</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>52</v>
+      </c>
+      <c r="J24" t="n">
+        <v>175</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1255722489.972268</v>
+        <v>1352608213.56872</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07488578754621002</v>
+        <v>0.07767938070387219</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0203662474587494</v>
+        <v>0.02932537206797255</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1417470834.949775</v>
+        <v>1018780349.210783</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07693448621826686</v>
+        <v>0.0762888990583441</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02352944852377119</v>
+        <v>0.02885239137466552</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3207054220.464245</v>
+        <v>3456362999.382483</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1296055547752951</v>
+        <v>0.1333492572306361</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02284221210863347</v>
+        <v>0.02077559150698543</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>70</v>
+      </c>
+      <c r="J27" t="n">
+        <v>174</v>
+      </c>
+      <c r="K27" t="n">
+        <v>81.25400318695148</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3244054536.052307</v>
+        <v>3758411695.926566</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09313882101102511</v>
+        <v>0.110011543824753</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04436077383414644</v>
+        <v>0.04377790610976664</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>175</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5167283654.035236</v>
+        <v>4034798892.727572</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1331739889893022</v>
+        <v>0.1416571110249054</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03728505961494308</v>
+        <v>0.0407691751050982</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>164</v>
+      </c>
+      <c r="J29" t="n">
+        <v>175</v>
+      </c>
+      <c r="K29" t="n">
+        <v>148.6090873245397</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1561652780.018155</v>
+        <v>2236127192.368773</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1363819029392309</v>
+        <v>0.08462033046542339</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03577701492855439</v>
+        <v>0.03108281947370727</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1485294175.357057</v>
+        <v>1144241240.837835</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0896791020762452</v>
+        <v>0.09307099033268935</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0381803797751335</v>
+        <v>0.03482167272741413</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1840904675.400195</v>
+        <v>1545076677.3446</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1169575952154897</v>
+        <v>0.08787461456368442</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03170505316061906</v>
+        <v>0.02481889350873292</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2878420001.139915</v>
+        <v>2106422442.909902</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1777812500988714</v>
+        <v>0.2067071270223296</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04229048960617728</v>
+        <v>0.0539580512224821</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1252892353.22657</v>
+        <v>1330533353.799763</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1005393355124136</v>
+        <v>0.1019411024723385</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02312750239805228</v>
+        <v>0.02546177205818989</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>876558160.7915143</v>
+        <v>1350680851.057106</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1102422048683083</v>
+        <v>0.1118806390408803</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04244437477189909</v>
+        <v>0.03511266764030735</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2838480462.912214</v>
+        <v>2251998130.525546</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1218898196181238</v>
+        <v>0.1397921592004977</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01780361712045758</v>
+        <v>0.01770006665475187</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2058401173.289832</v>
+        <v>2093542965.938736</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09686202460085963</v>
+        <v>0.08800982338802341</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04222924462419892</v>
+        <v>0.03722070326574686</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1719473450.105314</v>
+        <v>1861786773.890518</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09180433551162162</v>
+        <v>0.09919027535952109</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03404298322244562</v>
+        <v>0.03346769067790635</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2068598514.213346</v>
+        <v>2146041929.378589</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1882866257591172</v>
+        <v>0.1262401062832914</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02383609740324498</v>
+        <v>0.02402913613185873</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1440440671.921805</v>
+        <v>1602323826.482297</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1063238080646158</v>
+        <v>0.1083801460775114</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03759463319259014</v>
+        <v>0.0497555051488594</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2326165117.433166</v>
+        <v>2589694146.41408</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1429503708951866</v>
+        <v>0.1270460044052186</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03569674649176992</v>
+        <v>0.04318737494925279</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3171073182.840409</v>
+        <v>4165266814.209295</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09732337813685731</v>
+        <v>0.09709372188499786</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03125096961449922</v>
+        <v>0.03221078309814635</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>65</v>
+      </c>
+      <c r="J42" t="n">
+        <v>175</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2169289742.333712</v>
+        <v>1997239228.830106</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2026988336671111</v>
+        <v>0.1812488373123634</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02209780938136971</v>
+        <v>0.02365412032380692</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1592095306.908963</v>
+        <v>2249652225.509274</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08569705730680889</v>
+        <v>0.08357868393774634</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02655412380371255</v>
+        <v>0.02534722539632308</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1940988665.266597</v>
+        <v>1822245916.204333</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1205025341640551</v>
+        <v>0.1630040601488173</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04468611015784195</v>
+        <v>0.03490438711968809</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4033985108.798353</v>
+        <v>5224271527.497103</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1477973547411741</v>
+        <v>0.1182113613854805</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04977921862819526</v>
+        <v>0.04647154259956592</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>98</v>
+      </c>
+      <c r="J46" t="n">
+        <v>175</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4110123257.285374</v>
+        <v>4677558214.440422</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1748242402155057</v>
+        <v>0.1536023164384974</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03785139982861385</v>
+        <v>0.04151121800016989</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>78</v>
+      </c>
+      <c r="J47" t="n">
+        <v>174</v>
+      </c>
+      <c r="K47" t="n">
+        <v>106.0163798863113</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4631727760.26276</v>
+        <v>4151092421.848133</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07969879389054728</v>
+        <v>0.09259959974442282</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03694260222736782</v>
+        <v>0.0332092333161994</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>79</v>
+      </c>
+      <c r="J48" t="n">
+        <v>175</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1291738782.152001</v>
+        <v>1493460207.296013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1555132960498697</v>
+        <v>0.1369811082414549</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02999022145747362</v>
+        <v>0.03830391162467719</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4205909761.803585</v>
+        <v>4208049903.716981</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1785574150297915</v>
+        <v>0.176196869798856</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04362425931201677</v>
+        <v>0.04740403838098612</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>56</v>
+      </c>
+      <c r="J50" t="n">
+        <v>175</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1013008170.07786</v>
+        <v>1278919812.217249</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1756196234438883</v>
+        <v>0.1270293540534375</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05142874240656042</v>
+        <v>0.03860726624546251</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3339653210.169778</v>
+        <v>3823503120.454486</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1214559248850262</v>
+        <v>0.09206888353130457</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04314194598653609</v>
+        <v>0.05756401002861904</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>124</v>
+      </c>
+      <c r="J52" t="n">
+        <v>174</v>
+      </c>
+      <c r="K52" t="n">
+        <v>115.5075902257276</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3515086376.40422</v>
+        <v>2307814446.82604</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1834603630677674</v>
+        <v>0.1337049487437957</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03315555377254706</v>
+        <v>0.02807940284412308</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3218479766.77486</v>
+        <v>4432493793.657343</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1147361593545077</v>
+        <v>0.1478937838427035</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04196216979919627</v>
+        <v>0.04838803074384992</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>87</v>
+      </c>
+      <c r="J54" t="n">
+        <v>175</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3029829510.684707</v>
+        <v>3205929237.44344</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1988210513614749</v>
+        <v>0.1559875869080777</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02832524416247951</v>
+        <v>0.02484141482648437</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>79</v>
+      </c>
+      <c r="J55" t="n">
+        <v>173</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1432080258.31751</v>
+        <v>1296773983.39227</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1124256889760733</v>
+        <v>0.111221655264456</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0467271351090634</v>
+        <v>0.03929708801727269</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4267956286.492004</v>
+        <v>3571881556.091743</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1427251615827979</v>
+        <v>0.1710222221069161</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02675143805826004</v>
+        <v>0.01724265261478191</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>71</v>
+      </c>
+      <c r="J57" t="n">
+        <v>174</v>
+      </c>
+      <c r="K57" t="n">
+        <v>98.91707833260301</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847436111.9861</v>
+        <v>1911941814.157081</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1474693225589392</v>
+        <v>0.1717024591140881</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03387345884346537</v>
+        <v>0.03292721862785183</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4584649022.277015</v>
+        <v>3979696623.369023</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08970529552626903</v>
+        <v>0.1297136728087105</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04317835407868149</v>
+        <v>0.04635984117872226</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>84</v>
+      </c>
+      <c r="J59" t="n">
+        <v>174</v>
+      </c>
+      <c r="K59" t="n">
+        <v>117.3189744893214</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3366069099.23964</v>
+        <v>2596088990.190046</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1607768189088148</v>
+        <v>0.1954051494583387</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02708596619614057</v>
+        <v>0.02541906025056053</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3031824722.576109</v>
+        <v>2899409712.34436</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1694710239637908</v>
+        <v>0.1754329110525519</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0209179461222998</v>
+        <v>0.02827108925871043</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1376800695.182245</v>
+        <v>1499108890.337943</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1388673398655519</v>
+        <v>0.1243093328446754</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04090465812845279</v>
+        <v>0.04433568839533485</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4697071368.564615</v>
+        <v>4222686846.656128</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1011239165383753</v>
+        <v>0.08700408480514162</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03104707759015581</v>
+        <v>0.04501102839014901</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>86</v>
+      </c>
+      <c r="J63" t="n">
+        <v>174</v>
+      </c>
+      <c r="K63" t="n">
+        <v>120.273601836534</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5208827864.332557</v>
+        <v>4764526400.34827</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1349858908343308</v>
+        <v>0.139649954120198</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02655533748495098</v>
+        <v>0.02166854656804461</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>86</v>
+      </c>
+      <c r="J64" t="n">
+        <v>175</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5921875390.308402</v>
+        <v>3796404007.009397</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1178909961912886</v>
+        <v>0.1389173273838036</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03163380132645129</v>
+        <v>0.02882939398779291</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>143</v>
+      </c>
+      <c r="J65" t="n">
+        <v>174</v>
+      </c>
+      <c r="K65" t="n">
+        <v>116.6386054318407</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4615755339.358439</v>
+        <v>5575352360.029464</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1623984997128035</v>
+        <v>0.1486046716782781</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04646666972340338</v>
+        <v>0.04794274557598537</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>86</v>
+      </c>
+      <c r="J66" t="n">
+        <v>174</v>
+      </c>
+      <c r="K66" t="n">
+        <v>119.6320806823711</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3248903672.390858</v>
+        <v>2358843789.537446</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07951518605782171</v>
+        <v>0.07991085465165608</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04620588605985905</v>
+        <v>0.04102470933276248</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5903945833.097113</v>
+        <v>5716528434.41295</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1397555285424102</v>
+        <v>0.1467249239908566</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03316270486893064</v>
+        <v>0.0513938604163121</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>88</v>
+      </c>
+      <c r="J68" t="n">
+        <v>174</v>
+      </c>
+      <c r="K68" t="n">
+        <v>123.9511605428842</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2250289842.40945</v>
+        <v>1673851752.623209</v>
       </c>
       <c r="F69" t="n">
-        <v>0.143295402419132</v>
+        <v>0.1262865603542626</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05562651769554981</v>
+        <v>0.04441974081092767</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3665577210.515272</v>
+        <v>2806440036.300573</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0798183589065344</v>
+        <v>0.06277654083519656</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03167480834526858</v>
+        <v>0.03530258567875205</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3892358280.238374</v>
+        <v>4050747103.156604</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1348749531800181</v>
+        <v>0.1350153426808757</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02410511521421064</v>
+        <v>0.02569261096004226</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>138</v>
+      </c>
+      <c r="J71" t="n">
+        <v>175</v>
+      </c>
+      <c r="K71" t="n">
+        <v>131.247736884204</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1516166535.949324</v>
+        <v>1761541023.82061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1065844672048032</v>
+        <v>0.08625883557613706</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05297623551212773</v>
+        <v>0.04962454081806479</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2386455684.957516</v>
+        <v>2475349580.074883</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07205289274137161</v>
+        <v>0.1010363791870742</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04841211871270901</v>
+        <v>0.03414548837387481</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3347173170.282487</v>
+        <v>3794023671.549391</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1399135746097771</v>
+        <v>0.1391667753759089</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0280362699256164</v>
+        <v>0.02364954379592769</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>51</v>
+      </c>
+      <c r="J74" t="n">
+        <v>175</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1778058590.461626</v>
+        <v>1538593309.532763</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1433071940130662</v>
+        <v>0.1102284582957882</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02440794958314668</v>
+        <v>0.02837579918938772</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4710723716.105677</v>
+        <v>4309093182.35214</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1073445148475781</v>
+        <v>0.1065560716622286</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02968277357575908</v>
+        <v>0.02460241760790717</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>79</v>
+      </c>
+      <c r="J76" t="n">
+        <v>175</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1628814416.931288</v>
+        <v>2096392654.503757</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1781300040104906</v>
+        <v>0.1199580247691725</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02524081426067018</v>
+        <v>0.02948594855085748</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3195,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3628767521.999726</v>
+        <v>3350107264.431389</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1009008588395154</v>
+        <v>0.1120092094856484</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03912510291881636</v>
+        <v>0.04486831705538288</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>89</v>
+      </c>
+      <c r="J78" t="n">
+        <v>174</v>
+      </c>
+      <c r="K78" t="n">
+        <v>92.24913277889479</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1856939262.216689</v>
+        <v>1880866433.629308</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1311315235852945</v>
+        <v>0.1755289548553184</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02667869136012445</v>
+        <v>0.03162037773219176</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4210844034.405064</v>
+        <v>4314166570.84676</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1111263242985888</v>
+        <v>0.08799642789700948</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03134491858832558</v>
+        <v>0.0323870543875679</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>85</v>
+      </c>
+      <c r="J80" t="n">
+        <v>175</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3281194469.575318</v>
+        <v>4856959316.092559</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1086352913612863</v>
+        <v>0.1171999352461996</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02483055099209046</v>
+        <v>0.02904438083483052</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>80</v>
+      </c>
+      <c r="J81" t="n">
+        <v>175</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3496623984.902877</v>
+        <v>5658278228.181318</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1693954322602984</v>
+        <v>0.1984815169249327</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02673191370615586</v>
+        <v>0.01996711603656612</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>130</v>
+      </c>
+      <c r="J82" t="n">
+        <v>175</v>
+      </c>
+      <c r="K82" t="n">
+        <v>137.574849993312</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1925034653.70921</v>
+        <v>2226736700.601745</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1176535105143856</v>
+        <v>0.1232774168643074</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04335235027862005</v>
+        <v>0.03590471517698677</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1677315692.491031</v>
+        <v>2473990294.066508</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08676651600923009</v>
+        <v>0.09081024342588027</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04485515852587917</v>
+        <v>0.03932096400632992</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3639155689.389634</v>
+        <v>2828529957.794058</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1324691876028483</v>
+        <v>0.1386936120251643</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05066532648473716</v>
+        <v>0.05153665248071742</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2158595785.233306</v>
+        <v>2097825575.576517</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1478087210539877</v>
+        <v>0.124280722208514</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02680289045240846</v>
+        <v>0.01672594372901606</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1162339996.7827</v>
+        <v>912380762.1632158</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1886467962261189</v>
+        <v>0.1604137122770834</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0283917054750655</v>
+        <v>0.03826940785117311</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3685389225.2768</v>
+        <v>2412072573.679507</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1770525401461815</v>
+        <v>0.1232532754185611</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03782448747649651</v>
+        <v>0.02554218366263897</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2320900500.214901</v>
+        <v>2142244982.666397</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121392602860307</v>
+        <v>0.1354971424051374</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0346794546828452</v>
+        <v>0.03065697605574326</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1951471079.019574</v>
+        <v>1379887616.969569</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1094911363831081</v>
+        <v>0.1335624314789281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04567077675621264</v>
+        <v>0.05317461788538585</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1930951217.400594</v>
+        <v>1448198302.660405</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1384058530487484</v>
+        <v>0.1847241324717875</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04669548410022294</v>
+        <v>0.05002333746652618</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2165950047.962977</v>
+        <v>2027543117.965161</v>
       </c>
       <c r="F92" t="n">
-        <v>0.087327954974349</v>
+        <v>0.1084902866025004</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04683422851230793</v>
+        <v>0.03682733637896745</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3066362965.555524</v>
+        <v>4644371808.901726</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1094486173273203</v>
+        <v>0.1392507991511689</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04478260316818444</v>
+        <v>0.0363006231822782</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>78</v>
+      </c>
+      <c r="J93" t="n">
+        <v>175</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2036697476.354061</v>
+        <v>1727584518.272615</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221257956185186</v>
+        <v>0.1080166532530086</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0413285766442395</v>
+        <v>0.03172061811408597</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2730351189.185205</v>
+        <v>2936633221.492358</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1240729492758947</v>
+        <v>0.1122033219768878</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04185605171436223</v>
+        <v>0.0494985733396392</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1567694182.817415</v>
+        <v>2011228311.101428</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09565982786395663</v>
+        <v>0.1237238840699862</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04560882466255192</v>
+        <v>0.04599923526966776</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4846983438.36909</v>
+        <v>5357854171.890453</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1565371366999947</v>
+        <v>0.1499954600658526</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02487732239163848</v>
+        <v>0.02338030913807636</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>84</v>
+      </c>
+      <c r="J97" t="n">
+        <v>175</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2375758498.092066</v>
+        <v>3626316512.189055</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1170617965206694</v>
+        <v>0.1218939779288789</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02631254604918318</v>
+        <v>0.02221449582352985</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>42</v>
+      </c>
+      <c r="J98" t="n">
+        <v>172</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3242220760.751622</v>
+        <v>3345721614.848519</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1160088567649006</v>
+        <v>0.1423479985753284</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02201149635069139</v>
+        <v>0.02279786147899468</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3442034188.528333</v>
+        <v>4345772837.047795</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494617518402874</v>
+        <v>0.1498065061531908</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02008979322754834</v>
+        <v>0.01775137522864457</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>73</v>
+      </c>
+      <c r="J100" t="n">
+        <v>174</v>
+      </c>
+      <c r="K100" t="n">
+        <v>121.3256917793047</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3214190972.176207</v>
+        <v>3228775309.125361</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1662658802823989</v>
+        <v>0.169191958221243</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03975243783939526</v>
+        <v>0.05760167582672361</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>16</v>
+      </c>
+      <c r="J101" t="n">
+        <v>173</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
